--- a/data/recepients.xlsx
+++ b/data/recepients.xlsx
@@ -1,32 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Email for Arm</t>
   </si>
   <si>
     <t>gevorgadamyan@yahoo.com</t>
   </si>
+  <si>
+    <t>lyudvognova@gmail.com</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -59,7 +61,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF558ed5"/>
+        <fgColor rgb="FF558ED5"/>
       </patternFill>
     </fill>
   </fills>
@@ -98,25 +100,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -127,10 +129,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -168,71 +170,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -260,7 +262,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -283,11 +285,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -296,13 +298,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -312,7 +314,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -321,7 +323,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -330,7 +332,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -338,10 +340,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -410,23 +412,30 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="44.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="44.42578125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
+    <row r="1" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+    <row r="2" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/data/recepients.xlsx
+++ b/data/recepients.xlsx
@@ -22,14 +22,14 @@
     <t>gevorgadamyan@yahoo.com</t>
   </si>
   <si>
-    <t>lyudvognova@gmail.com</t>
+    <t>lyudvignova@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -50,6 +50,14 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -96,10 +104,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -110,8 +119,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -415,7 +428,7 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -434,11 +447,14 @@
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/recepients.xlsx
+++ b/data/recepients.xlsx
@@ -1,33 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Email for Arm</t>
   </si>
   <si>
     <t>gevorgadamyan@yahoo.com</t>
   </si>
+  <si>
+    <t>lyudvignova@gmail.com</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -49,6 +51,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -59,7 +69,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF558ed5"/>
+        <fgColor rgb="FF558ED5"/>
       </patternFill>
     </fill>
   </fills>
@@ -94,29 +104,34 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -127,10 +142,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -168,71 +183,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -260,7 +275,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -283,11 +298,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -296,13 +311,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -312,7 +327,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -321,7 +336,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -330,7 +345,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -338,10 +353,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -410,26 +425,36 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="44.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="44.42578125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
+    <row r="1" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+    <row r="2" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/recepients.xlsx
+++ b/data/recepients.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ET01\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E8ECE7A-8441-417D-BFAD-237AEA6C8501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="10425" windowHeight="10845" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,22 +20,31 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Email for Arm</t>
   </si>
   <si>
-    <t>gevorgadamyan@yahoo.com</t>
-  </si>
-  <si>
-    <t>lyudvignova@gmail.com</t>
+    <t>vahan.hovhannisyan.h@gmail.com</t>
+  </si>
+  <si>
+    <t>eurotouram@yahoo.com</t>
+  </si>
+  <si>
+    <t>eurotouram@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> lilis88@mail.ru </t>
+  </si>
+  <si>
+    <t>lil-3@mail.ru</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -39,13 +54,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -73,7 +81,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -96,30 +104,20 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -132,6 +130,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -421,19 +422,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.42578125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -442,18 +443,35 @@
       </c>
     </row>
     <row r="2" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{49124D8D-9335-4D84-8EE4-8524E1E6548C}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{EF18C0F0-61E5-4A63-AA22-454073B5F048}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{ACE63076-80F0-4AAF-BC70-84F59F5B2E9D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/recepients.xlsx
+++ b/data/recepients.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ET01\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E8ECE7A-8441-417D-BFAD-237AEA6C8501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16EF9051-A465-4FAB-BAA1-0484B6DF7152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="10425" windowHeight="10845" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="675" windowWidth="12450" windowHeight="10845" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,10 +34,10 @@
     <t>eurotouram@gmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve"> lilis88@mail.ru </t>
-  </si>
-  <si>
     <t>lil-3@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lilis88@mail.ru </t>
   </si>
 </sst>
 </file>
@@ -429,7 +429,7 @@
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -458,13 +458,13 @@
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
+      <c r="A5" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -472,6 +472,7 @@
     <hyperlink ref="A2" r:id="rId1" xr:uid="{49124D8D-9335-4D84-8EE4-8524E1E6548C}"/>
     <hyperlink ref="A3" r:id="rId2" xr:uid="{EF18C0F0-61E5-4A63-AA22-454073B5F048}"/>
     <hyperlink ref="A4" r:id="rId3" xr:uid="{ACE63076-80F0-4AAF-BC70-84F59F5B2E9D}"/>
+    <hyperlink ref="A5" r:id="rId4" xr:uid="{DA11BA3A-5260-4287-95C5-FD28DAB4DAB4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/recepients.xlsx
+++ b/data/recepients.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ET01\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16EF9051-A465-4FAB-BAA1-0484B6DF7152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09E19568-0601-4312-A72D-C416ED70D53E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="675" windowWidth="12450" windowHeight="10845" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Email for Arm</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t xml:space="preserve">lilis88@mail.ru </t>
+  </si>
+  <si>
+    <t>glevon111@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -426,45 +429,50 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="44.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.453125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -473,6 +481,7 @@
     <hyperlink ref="A3" r:id="rId2" xr:uid="{EF18C0F0-61E5-4A63-AA22-454073B5F048}"/>
     <hyperlink ref="A4" r:id="rId3" xr:uid="{ACE63076-80F0-4AAF-BC70-84F59F5B2E9D}"/>
     <hyperlink ref="A5" r:id="rId4" xr:uid="{DA11BA3A-5260-4287-95C5-FD28DAB4DAB4}"/>
+    <hyperlink ref="A7" r:id="rId5" xr:uid="{04290EAA-803F-4E71-BEA6-FED3E5EDF8FA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/recepients.xlsx
+++ b/data/recepients.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09E19568-0601-4312-A72D-C416ED70D53E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBCF63DF-190A-4A38-8056-E086DEE7F90D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
     <t xml:space="preserve">lilis88@mail.ru </t>
   </si>
   <si>
-    <t>glevon111@gmail.com</t>
+    <t>levon.eurotour@gmail.com</t>
   </si>
 </sst>
 </file>

--- a/data/recepients.xlsx
+++ b/data/recepients.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBCF63DF-190A-4A38-8056-E086DEE7F90D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10305"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,33 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Email for Arm</t>
   </si>
   <si>
-    <t>vahan.hovhannisyan.h@gmail.com</t>
+    <t>gevorgadamyan@yahoo.com</t>
   </si>
   <si>
-    <t>eurotouram@yahoo.com</t>
+    <t>adamyangevorg4@gmail.com</t>
   </si>
   <si>
-    <t>eurotouram@gmail.com</t>
-  </si>
-  <si>
-    <t>lil-3@mail.ru</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lilis88@mail.ru </t>
-  </si>
-  <si>
-    <t>levon.eurotour@gmail.com</t>
+    <t>gevorgadamyan@outlook.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -425,19 +410,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.42578125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -445,43 +430,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{49124D8D-9335-4D84-8EE4-8524E1E6548C}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{EF18C0F0-61E5-4A63-AA22-454073B5F048}"/>
-    <hyperlink ref="A4" r:id="rId3" xr:uid="{ACE63076-80F0-4AAF-BC70-84F59F5B2E9D}"/>
-    <hyperlink ref="A5" r:id="rId4" xr:uid="{DA11BA3A-5260-4287-95C5-FD28DAB4DAB4}"/>
-    <hyperlink ref="A7" r:id="rId5" xr:uid="{04290EAA-803F-4E71-BEA6-FED3E5EDF8FA}"/>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="A4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/recepients.xlsx
+++ b/data/recepients.xlsx
@@ -14,18 +14,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Email for Arm</t>
   </si>
   <si>
-    <t>gevorgadamyan@yahoo.com</t>
-  </si>
-  <si>
-    <t>adamyangevorg4@gmail.com</t>
-  </si>
-  <si>
-    <t>gevorgadamyan@outlook.com</t>
+    <t>vahan.hovhannisyan.h@gmail.com</t>
+  </si>
+  <si>
+    <t>eurotouram@yahoo.com</t>
+  </si>
+  <si>
+    <t>eurotouram@gmail.com</t>
+  </si>
+  <si>
+    <t>lil-3@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lilis88@mail.ru </t>
+  </si>
+  <si>
+    <t>levon.eurotour@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -414,10 +423,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -430,26 +439,52 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
+    </row>
+    <row r="5" spans="1:1" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
     <hyperlink ref="A3" r:id="rId2"/>
     <hyperlink ref="A4" r:id="rId3"/>
+    <hyperlink ref="A5" r:id="rId4"/>
+    <hyperlink ref="A7" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/recepients.xlsx
+++ b/data/recepients.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10305"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Email for Arm</t>
   </si>
@@ -28,20 +28,24 @@
     <t>eurotouram@gmail.com</t>
   </si>
   <si>
+    <t xml:space="preserve">lilis88@mail.ru </t>
+  </si>
+  <si>
     <t>lil-3@mail.ru</t>
   </si>
   <si>
-    <t xml:space="preserve">lilis88@mail.ru </t>
-  </si>
-  <si>
     <t>levon.eurotour@gmail.com</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -59,10 +63,15 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color theme="10"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -74,11 +83,11 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF558ED5"/>
+        <fgColor rgb="FF558ed5"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -101,35 +110,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="6">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="1">
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -140,10 +157,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -181,71 +198,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -273,7 +290,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -296,11 +313,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -309,13 +326,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -325,7 +342,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -334,7 +351,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -343,7 +360,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -351,10 +368,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -425,67 +442,60 @@
   </sheetPr>
   <dimension ref="A1:A10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="5" width="44.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+      <c r="A8" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+      <c r="A9" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+      <c r="A10" s="2"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A3" r:id="rId2"/>
-    <hyperlink ref="A4" r:id="rId3"/>
-    <hyperlink ref="A5" r:id="rId4"/>
-    <hyperlink ref="A7" r:id="rId5"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/recepients.xlsx
+++ b/data/recepients.xlsx
@@ -1,25 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70573017-2961-4831-9575-5F1A689C708C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="1820" yWindow="1590" windowWidth="17380" windowHeight="9210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Email for Arm</t>
-  </si>
-  <si>
-    <t>vahan.hovhannisyan.h@gmail.com</t>
   </si>
   <si>
     <t>eurotouram@yahoo.com</t>
@@ -43,8 +46,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -83,7 +85,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF558ed5"/>
+        <fgColor rgb="FF558ED5"/>
       </patternFill>
     </fill>
   </fills>
@@ -122,31 +124,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -157,10 +162,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -198,71 +203,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -290,7 +295,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -313,11 +318,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -326,13 +331,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -342,7 +347,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -351,7 +356,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -360,7 +365,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -368,10 +373,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -436,64 +441,61 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:A9"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" style="5" width="44.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="44.453125" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
+    <row r="1" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+    <row r="2" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+    <row r="3" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+    <row r="4" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+    <row r="8" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="2"/>
+    </row>
+    <row r="9" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
-      <c r="A10" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
